--- a/public/Files/DTS_OrderingTemplate.xlsx
+++ b/public/Files/DTS_OrderingTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\laravel\david\public\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{309515EA-FABF-4A6C-9534-479DDA9D65B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99856372-65A4-4F72-BF7B-05D5CC72A794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{E0AA28BE-E3A6-4B78-A4BF-4DD92309272E}"/>
   </bookViews>
@@ -750,15 +750,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -786,6 +777,18 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -793,9 +796,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1115,65 +1115,65 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5703125" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.85546875" style="16" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="17.85546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.42578125" style="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.85546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" style="16" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="16"/>
+    <col min="1" max="1" width="14.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.85546875" style="13" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="17.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" style="13" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="14" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="15"/>
+      <c r="L1" s="12"/>
     </row>
     <row r="2" spans="1:12" ht="136.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="15" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -1200,18 +1200,18 @@
       <c r="K2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="19" t="s">
+      <c r="L2" s="16" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="18" t="s">
         <v>21</v>
       </c>
       <c r="D3" s="3"/>
@@ -1228,15 +1228,15 @@
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
-      <c r="L3" s="23">
+      <c r="L3" s="20">
         <f>SUM(D3:K3)</f>
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="24"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -1245,14 +1245,14 @@
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
-      <c r="L4" s="25"/>
+      <c r="L4" s="22"/>
     </row>
     <row r="5" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="13"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="27"/>
       <c r="D5" s="7" t="s">
         <v>23</v>
       </c>
@@ -1277,16 +1277,16 @@
       <c r="K5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="L5" s="15"/>
+      <c r="L5" s="12"/>
     </row>
     <row r="6" spans="1:12" ht="121.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="15" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -1313,18 +1313,18 @@
       <c r="K6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="L6" s="19" t="s">
+      <c r="L6" s="16" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="18" t="s">
         <v>21</v>
       </c>
       <c r="D7" s="4">
@@ -1337,15 +1337,15 @@
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
-      <c r="L7" s="23">
+      <c r="L7" s="20">
         <f>SUM(D7:K7)</f>
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -1354,14 +1354,14 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
-      <c r="L8" s="26"/>
+      <c r="L8" s="23"/>
     </row>
     <row r="9" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="13"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="27"/>
       <c r="D9" s="7" t="s">
         <v>1</v>
       </c>
@@ -1386,16 +1386,16 @@
       <c r="K9" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="L9" s="15"/>
+      <c r="L9" s="12"/>
     </row>
     <row r="10" spans="1:12" ht="121.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="15" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -1422,18 +1422,18 @@
       <c r="K10" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="L10" s="19" t="s">
+      <c r="L10" s="16" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="18" t="s">
         <v>21</v>
       </c>
       <c r="D11" s="3"/>
@@ -1448,15 +1448,15 @@
         <v>0</v>
       </c>
       <c r="K11" s="3"/>
-      <c r="L11" s="23">
+      <c r="L11" s="20">
         <f>SUM(D11:K11)</f>
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="15"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -1465,14 +1465,14 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
-      <c r="L12" s="26"/>
+      <c r="L12" s="23"/>
     </row>
     <row r="13" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="28"/>
-      <c r="C13" s="29"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="30"/>
       <c r="D13" s="9" t="s">
         <v>2</v>
       </c>
@@ -1497,16 +1497,16 @@
       <c r="K13" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="L13" s="15"/>
+      <c r="L13" s="12"/>
     </row>
     <row r="14" spans="1:12" ht="136.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="15" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -1533,18 +1533,18 @@
       <c r="K14" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="L14" s="19" t="s">
+      <c r="L14" s="16" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="18" t="s">
         <v>21</v>
       </c>
       <c r="D15" s="3"/>
@@ -1557,15 +1557,15 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
-      <c r="L15" s="23">
+      <c r="L15" s="20">
         <f>SUM(D15:K15)</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="8"/>
@@ -1574,14 +1574,14 @@
       <c r="I16" s="8"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
-      <c r="L16" s="15"/>
+      <c r="L16" s="12"/>
     </row>
     <row r="17" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="13"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="27"/>
       <c r="D17" s="7" t="s">
         <v>1</v>
       </c>
@@ -1606,16 +1606,16 @@
       <c r="K17" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="L17" s="22"/>
+      <c r="L17" s="19"/>
     </row>
     <row r="18" spans="1:12" ht="121.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="15" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
@@ -1642,18 +1642,18 @@
       <c r="K18" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L18" s="19" t="s">
+      <c r="L18" s="16" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="18" t="s">
         <v>21</v>
       </c>
       <c r="D19" s="3"/>
@@ -1664,15 +1664,15 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-      <c r="L19" s="23">
+      <c r="L19" s="20">
         <f>SUM(D19:K19)</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="15"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -1681,14 +1681,14 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
-      <c r="L20" s="26"/>
+      <c r="L20" s="23"/>
     </row>
     <row r="21" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="13"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="27"/>
       <c r="D21" s="7" t="s">
         <v>36</v>
       </c>
@@ -1713,16 +1713,16 @@
       <c r="K21" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="L21" s="15"/>
+      <c r="L21" s="12"/>
     </row>
     <row r="22" spans="1:12" ht="121.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="15" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -1749,18 +1749,18 @@
       <c r="K22" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="L22" s="19" t="s">
+      <c r="L22" s="16" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="20" t="s">
+      <c r="A23" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="C23" s="18" t="s">
         <v>21</v>
       </c>
       <c r="D23" s="3"/>
@@ -1775,50 +1775,50 @@
         <v>5</v>
       </c>
       <c r="K23" s="3"/>
-      <c r="L23" s="23">
+      <c r="L23" s="20">
         <f>SUM(D23:K23)</f>
         <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="26"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="26"/>
-      <c r="L24" s="26"/>
+      <c r="A24" s="23"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
     </row>
     <row r="25" spans="1:12" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="26"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="26"/>
-      <c r="L25" s="30">
+      <c r="A25" s="23"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="24">
         <f>SUM(L23,L19,L15,L11,L7,L3)</f>
         <v>38</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A21:C21"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A21:C21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
